--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -685,17 +685,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.2734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.32421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="28.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -704,23 +704,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -360,6 +360,19 @@
   </si>
   <si>
     <t>fundingSource</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>base64Binary
@@ -687,7 +700,7 @@
   <cols>
     <col min="1" max="1" width="28.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -695,7 +708,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2349,14 +2362,14 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -2371,12 +2384,14 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -2440,7 +2455,7 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -2570,7 +2585,7 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>106</v>
@@ -2772,7 +2787,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>106</v>

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$21</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -282,9 +285,6 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -305,7 +305,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>id</t>
+    <t>fundingSourceId</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -360,19 +363,6 @@
   </si>
   <si>
     <t>fundingSource</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>base64Binary
@@ -505,6 +495,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -700,7 +705,7 @@
   <cols>
     <col min="1" max="1" width="28.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -708,7 +713,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -846,7 +851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -946,7 +951,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>87</v>
       </c>
@@ -1056,7 +1061,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>77</v>
@@ -1071,13 +1076,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1116,19 +1121,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1151,20 +1156,20 @@
         <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>75</v>
@@ -1173,13 +1178,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1230,7 +1235,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -1248,7 +1253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>96</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>97</v>
       </c>
@@ -1373,13 +1378,13 @@
         <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1418,19 +1423,19 @@
         <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
@@ -1448,7 +1453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>98</v>
       </c>
@@ -1490,7 +1495,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1550,7 +1555,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>105</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>87</v>
       </c>
@@ -1677,13 +1682,13 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1734,7 +1739,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -1752,7 +1757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>96</v>
       </c>
@@ -1852,7 +1857,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>97</v>
       </c>
@@ -1877,13 +1882,13 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1922,19 +1927,19 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -1952,7 +1957,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>98</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>105</v>
       </c>
@@ -2169,10 +2174,10 @@
         <v>81</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2181,13 +2186,13 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2238,7 +2243,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -2256,7 +2261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>96</v>
       </c>
@@ -2356,20 +2361,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>97</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>75</v>
@@ -2381,17 +2386,15 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -2428,19 +2431,19 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AB17" t="s" s="2">
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
+      <c r="AE17" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -2455,10 +2458,10 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>98</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>105</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>106</v>
@@ -2660,7 +2663,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>103</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>108</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>106</v>
@@ -2863,6 +2866,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ21">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI20">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fundingSource.xlsx
+++ b/output/StructureDefinition-fundingSource.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
